--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_Maxconnec.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_Maxconnec.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>CAM</t>
+  </si>
+  <si>
+    <t>IMEI tb mới : WSP21060008S0081/0032000B49</t>
   </si>
 </sst>
 </file>
@@ -722,30 +725,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +742,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,41 +1109,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1185,58 +1188,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1261,23 +1264,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1291,7 @@
         <v>44837</v>
       </c>
       <c r="C6" s="61">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
@@ -1300,7 +1303,9 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1332,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1358,7 +1363,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1392,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1421,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1445,7 +1450,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1479,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1503,7 +1508,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1534,7 +1539,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1597,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1626,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3337,6 +3342,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3348,13 +3360,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3398,39 +3403,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3475,58 +3480,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3551,23 +3556,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,7 +3598,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3624,7 +3629,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3653,7 +3658,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3687,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3711,7 +3716,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +3745,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3769,7 +3774,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3800,7 +3805,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3858,7 +3863,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3892,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5603,13 +5608,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5621,6 +5619,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5664,39 +5669,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5741,58 +5746,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5817,23 +5822,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5859,7 +5864,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5890,7 +5895,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5919,7 +5924,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5948,7 +5953,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5977,7 +5982,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6006,7 +6011,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6035,7 +6040,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6066,7 +6071,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6095,7 +6100,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6124,7 +6129,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6153,7 +6158,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7869,13 +7874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7887,6 +7885,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7930,39 +7935,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8007,58 +8012,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8083,23 +8088,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8125,7 +8130,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8156,7 +8161,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8185,7 +8190,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8214,7 +8219,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8243,7 +8248,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8272,7 +8277,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8301,7 +8306,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8332,7 +8337,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8361,7 +8366,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8390,7 +8395,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8419,7 +8424,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10135,13 +10140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10153,6 +10151,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10196,39 +10201,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10273,58 +10278,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10349,23 +10354,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10391,7 +10396,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10422,7 +10427,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10451,7 +10456,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10480,7 +10485,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10509,7 +10514,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10538,7 +10543,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10567,7 +10572,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10598,7 +10603,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10627,7 +10632,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10656,7 +10661,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10685,7 +10690,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12401,13 +12406,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12419,6 +12417,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12462,39 +12467,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12539,58 +12544,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12615,23 +12620,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12657,7 +12662,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12688,7 +12693,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12717,7 +12722,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12746,7 +12751,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12775,7 +12780,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12804,7 +12809,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12833,7 +12838,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12864,7 +12869,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12893,7 +12898,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12922,7 +12927,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12951,7 +12956,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14667,13 +14672,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14685,6 +14683,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14728,39 +14733,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14805,58 +14810,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14881,23 +14886,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14923,7 +14928,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14954,7 +14959,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14983,7 +14988,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15012,7 +15017,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15041,7 +15046,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15070,7 +15075,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15099,7 +15104,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15130,7 +15135,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15159,7 +15164,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15188,7 +15193,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15217,7 +15222,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16933,13 +16938,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16951,6 +16949,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16994,39 +16999,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17071,58 +17076,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17147,23 +17152,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17189,7 +17194,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17220,7 +17225,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17249,7 +17254,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17278,7 +17283,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17307,7 +17312,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17336,7 +17341,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17365,7 +17370,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17396,7 +17401,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17425,7 +17430,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17454,7 +17459,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17483,7 +17488,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19199,13 +19204,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19217,6 +19215,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19260,39 +19265,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19337,58 +19342,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19413,23 +19418,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19455,7 +19460,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19486,7 +19491,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19515,7 +19520,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19544,7 +19549,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19573,7 +19578,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19602,7 +19607,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19631,7 +19636,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19662,7 +19667,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19691,7 +19696,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19720,7 +19725,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19749,7 +19754,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20980,6 +20985,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20991,13 +21003,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
